--- a/Data/Data dictionnary.xlsx
+++ b/Data/Data dictionnary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/513963b193db7281/Documents/McGill MMA/Fall 2023/Data mining (INSY662)/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95ac110abbc07cc8/MMA/INSY662/project/INSY662-Group-Project/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="11_F25DC773A252ABDACC1048E179DD430A5ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C25D4317-A09E-466F-B145-831B49F1CD1D}"/>
+  <xr:revisionPtr revIDLastSave="66" documentId="11_F25DC773A252ABDACC1048E179DD430A5ADE58F1" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F91AF9C-DC41-0A41-85C0-82C670F6E934}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3500" yWindow="740" windowWidth="23260" windowHeight="12460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>1 if the day was a Holiday, 0 if not</t>
   </si>
   <si>
-    <t>The duration of the bike trip</t>
-  </si>
-  <si>
     <t>The distance traveled during the bike trip (straight line from start to end)</t>
   </si>
   <si>
@@ -223,6 +220,9 @@
   </si>
   <si>
     <t>The cluster number to which the end station belongs (out of 20 clusters)</t>
+  </si>
+  <si>
+    <t>The duration of the bike trip in minutes</t>
   </si>
 </sst>
 </file>
@@ -551,17 +551,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="93.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +569,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -577,7 +577,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -585,7 +585,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -593,7 +593,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -601,7 +601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -609,7 +609,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -617,7 +617,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -625,7 +625,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -633,7 +633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -641,7 +641,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -649,7 +649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -657,7 +657,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -665,7 +665,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -673,7 +673,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -681,7 +681,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -689,7 +689,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -697,7 +697,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -705,7 +705,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>28</v>
       </c>
@@ -713,7 +713,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>29</v>
       </c>
@@ -721,7 +721,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>30</v>
       </c>
@@ -729,7 +729,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
@@ -737,7 +737,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
@@ -745,15 +745,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>11</v>
       </c>
@@ -761,68 +761,68 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
